--- a/data_tables/Flow cytometry_Flippase.xlsx
+++ b/data_tables/Flow cytometry_Flippase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miri\Documents\GitHub\R-graphs\data_tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uzh-my.sharepoint.com/personal/pauline_busch_uzh_ch/Documents/Documents/GitHub/R-graphs/data_tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8682A0F-E1EE-4924-B4C5-55CDE5617661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{A8682A0F-E1EE-4924-B4C5-55CDE5617661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C4420F0-AEEF-4D31-9E01-470472221B72}"/>
   <bookViews>
-    <workbookView xWindow="8850" yWindow="960" windowWidth="21600" windowHeight="11295" xr2:uid="{92C4E0DA-DD92-4D20-9961-4B73563276D0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{92C4E0DA-DD92-4D20-9961-4B73563276D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="2" r:id="rId1"/>
@@ -419,7 +419,7 @@
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,10 +446,10 @@
         <v>2</v>
       </c>
       <c r="C2" s="3">
-        <v>5.4455445544554459</v>
+        <v>5.7036577805331685</v>
       </c>
       <c r="D2" s="2">
-        <v>2.3130768436650655</v>
+        <v>1.6373091141643903</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -467,10 +467,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="3">
-        <v>26.507650765076505</v>
+        <v>29.778879933870634</v>
       </c>
       <c r="D3" s="2">
-        <v>8.9393175706555628</v>
+        <v>6.8802470840211924</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -488,10 +488,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="3">
-        <v>36.813681368136812</v>
+        <v>44.410002066542674</v>
       </c>
       <c r="D4" s="2">
-        <v>9.9820769694298388</v>
+        <v>10.114069331155763</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -509,10 +509,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="3">
-        <v>43.519351935193527</v>
+        <v>54.288076048770421</v>
       </c>
       <c r="D5" s="2">
-        <v>15.224431208213318</v>
+        <v>14.813568701734951</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -530,10 +530,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="3">
-        <v>52.61026102610262</v>
+        <v>63.959495763587526</v>
       </c>
       <c r="D6" s="3">
-        <v>15.551639640461996</v>
+        <v>15.390314315883284</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -551,10 +551,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="3">
-        <v>7.1799870045484075</v>
+        <v>6.1112130666177276</v>
       </c>
       <c r="D7" s="3">
-        <v>4.7152284521894119</v>
+        <v>3.6015634194335533</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="1"/>
@@ -570,10 +570,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="3">
-        <v>45.906432748538009</v>
+        <v>45.384474215452371</v>
       </c>
       <c r="D8" s="2">
-        <v>2.744588889189298</v>
+        <v>2.0498106635640272</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -586,10 +586,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="3">
-        <v>62.605588044184536</v>
+        <v>65.094512754633868</v>
       </c>
       <c r="D9" s="2">
-        <v>5.0884882384127028</v>
+        <v>4.9251824016546628</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -602,10 +602,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="3">
-        <v>79.434697855750485</v>
+        <v>81.959992659203522</v>
       </c>
       <c r="D10" s="2">
-        <v>6.1394242935716008</v>
+        <v>5.5290155289695839</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -618,10 +618,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="3">
-        <v>80.994152046783626</v>
+        <v>88.933749311800327</v>
       </c>
       <c r="D11" s="2">
-        <v>25.112746308843167</v>
+        <v>20.801714009287192</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>

--- a/data_tables/Flow cytometry_Flippase.xlsx
+++ b/data_tables/Flow cytometry_Flippase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uzh-my.sharepoint.com/personal/pauline_busch_uzh_ch/Documents/Documents/GitHub/R-graphs/data_tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miri\Documents\GitHub\R-graphs\data_tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{A8682A0F-E1EE-4924-B4C5-55CDE5617661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C4420F0-AEEF-4D31-9E01-470472221B72}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCFE5DC7-72F4-4580-B583-BF9895B66FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{92C4E0DA-DD92-4D20-9961-4B73563276D0}"/>
+    <workbookView xWindow="6780" yWindow="3015" windowWidth="21600" windowHeight="11295" xr2:uid="{92C4E0DA-DD92-4D20-9961-4B73563276D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="7">
   <si>
     <t>FL1</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>SD</t>
+  </si>
+  <si>
+    <t>meanx</t>
   </si>
 </sst>
 </file>
@@ -416,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB5FA687-EAEA-45CC-A7CC-435970B5F7FC}">
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,6 +438,9 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -446,12 +452,14 @@
         <v>2</v>
       </c>
       <c r="C2" s="3">
-        <v>5.7036577805331685</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1.6373091141643903</v>
-      </c>
-      <c r="E2" s="1"/>
+        <v>6.0521415270018633</v>
+      </c>
+      <c r="D2" s="3">
+        <v>4.5632151828077037</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1.0399062582333134</v>
+      </c>
       <c r="F2" s="1"/>
       <c r="M2" s="2"/>
       <c r="N2" s="1"/>
@@ -467,12 +475,14 @@
         <v>2</v>
       </c>
       <c r="C3" s="3">
-        <v>29.778879933870634</v>
-      </c>
-      <c r="D3" s="2">
-        <v>6.8802470840211924</v>
-      </c>
-      <c r="E3" s="1"/>
+        <v>27.839851024208567</v>
+      </c>
+      <c r="D3" s="3">
+        <v>23.123081216857383</v>
+      </c>
+      <c r="E3" s="2">
+        <v>4.8982837691705567</v>
+      </c>
       <c r="F3" s="1"/>
       <c r="M3" s="2"/>
       <c r="N3" s="1"/>
@@ -488,12 +498,14 @@
         <v>2</v>
       </c>
       <c r="C4" s="3">
-        <v>44.410002066542674</v>
-      </c>
-      <c r="D4" s="2">
-        <v>10.114069331155763</v>
-      </c>
-      <c r="E4" s="1"/>
+        <v>36.964618249534453</v>
+      </c>
+      <c r="D4" s="3">
+        <v>34.691599218531962</v>
+      </c>
+      <c r="E4" s="2">
+        <v>6.3628560526659994</v>
+      </c>
       <c r="F4" s="1"/>
       <c r="M4" s="2"/>
       <c r="N4" s="1"/>
@@ -509,12 +521,14 @@
         <v>2</v>
       </c>
       <c r="C5" s="3">
-        <v>54.288076048770421</v>
-      </c>
-      <c r="D5" s="2">
-        <v>14.813568701734951</v>
-      </c>
-      <c r="E5" s="1"/>
+        <v>46.089385474860336</v>
+      </c>
+      <c r="D5" s="3">
+        <v>42.548144013396595</v>
+      </c>
+      <c r="E5" s="2">
+        <v>9.0904212389394328</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="M5" s="3"/>
       <c r="N5" s="1"/>
@@ -530,12 +544,14 @@
         <v>2</v>
       </c>
       <c r="C6" s="3">
-        <v>63.959495763587526</v>
+        <v>53.724394785847295</v>
       </c>
       <c r="D6" s="3">
-        <v>15.390314315883284</v>
-      </c>
-      <c r="E6" s="1"/>
+        <v>50.027909572983539</v>
+      </c>
+      <c r="E6" s="3">
+        <v>9.5753541123637991</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="M6" s="2"/>
       <c r="N6" s="1"/>
@@ -551,10 +567,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="3">
-        <v>6.1112130666177276</v>
+        <v>9.2540661805945064</v>
       </c>
       <c r="D7" s="3">
-        <v>3.6015634194335533</v>
+        <v>5.057915057915058</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2.7462669041488694</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="1"/>
@@ -570,12 +589,14 @@
         <v>3</v>
       </c>
       <c r="C8" s="3">
-        <v>45.384474215452371</v>
-      </c>
-      <c r="D8" s="2">
-        <v>2.0498106635640272</v>
-      </c>
-      <c r="E8" s="1"/>
+        <v>42.456533931575997</v>
+      </c>
+      <c r="D8" s="3">
+        <v>36.267696267696273</v>
+      </c>
+      <c r="E8" s="2">
+        <v>5.6568889769722661</v>
+      </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -586,12 +607,14 @@
         <v>3</v>
       </c>
       <c r="C9" s="3">
-        <v>65.094512754633868</v>
-      </c>
-      <c r="D9" s="2">
-        <v>4.9251824016546628</v>
-      </c>
-      <c r="E9" s="1"/>
+        <v>58.721256309590586</v>
+      </c>
+      <c r="D9" s="3">
+        <v>52.84427284427283</v>
+      </c>
+      <c r="E9" s="2">
+        <v>4.7146055682945613</v>
+      </c>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -602,12 +625,14 @@
         <v>3</v>
       </c>
       <c r="C10" s="3">
-        <v>81.959992659203522</v>
-      </c>
-      <c r="D10" s="2">
-        <v>5.5290155289695839</v>
-      </c>
-      <c r="E10" s="1"/>
+        <v>74.312955692652835</v>
+      </c>
+      <c r="D10" s="3">
+        <v>66.731016731016737</v>
+      </c>
+      <c r="E10" s="2">
+        <v>5.6335384363396566</v>
+      </c>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -618,19 +643,348 @@
         <v>3</v>
       </c>
       <c r="C11" s="3">
-        <v>88.933749311800327</v>
-      </c>
-      <c r="D11" s="2">
-        <v>20.801714009287192</v>
-      </c>
-      <c r="E11" s="1"/>
+        <v>87.268648345485133</v>
+      </c>
+      <c r="D11" s="3">
+        <v>73.243243243243242</v>
+      </c>
+      <c r="E11" s="2">
+        <v>13.523046975803814</v>
+      </c>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="3">
+        <v>3.5759897828863343</v>
+      </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="3">
+        <v>18.518518518518519</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="3">
+        <v>26.883780332056194</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="3">
+        <v>30.140485312899113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>20</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="3">
+        <v>37.803320561941248</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="3">
+        <v>3.2691185055458254</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="3">
+        <v>38.295388207822526</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>10</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="3">
+        <v>51.371862230005824</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>15</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="3">
+        <v>65.382370110916526</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="3">
+        <v>54.69935785172212</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3">
+        <v>4.642108415693321</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>5</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="3">
+        <v>25.516621743036836</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>10</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="3">
+        <v>39.862234201856843</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>15</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="3">
+        <v>49.715483677747834</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>20</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="3">
+        <v>57.681940700808632</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="3">
+        <v>3.6210798577432914</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>5</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="3">
+        <v>34.27093436792758</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>10</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="3">
+        <v>52.376333656644036</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>15</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="3">
+        <v>65.341092790171359</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>20</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="3">
+        <v>76.075008082767553</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="3">
+        <v>4.2965459140690818</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>5</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="3">
+        <v>18.197135636057286</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>10</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="3">
+        <v>28.390901432181963</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>15</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="3">
+        <v>35.551811288963769</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>20</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="3">
+        <v>41.280539174389205</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="3">
+        <v>5.0804403048264195</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>5</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="3">
+        <v>29.212531752751914</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>10</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="3">
+        <v>47.332768839966135</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>15</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="3">
+        <v>60.880609652836583</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>20</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="3">
+        <v>71.549534292972055</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/data_tables/Flow cytometry_Flippase.xlsx
+++ b/data_tables/Flow cytometry_Flippase.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miri\Documents\GitHub\R-graphs\data_tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miri\Desktop\R\R-graphs\data_tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCFE5DC7-72F4-4580-B583-BF9895B66FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4239CF50-C556-405F-BB3F-8DC786EF047C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6780" yWindow="3015" windowWidth="21600" windowHeight="11295" xr2:uid="{92C4E0DA-DD92-4D20-9961-4B73563276D0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{92C4E0DA-DD92-4D20-9961-4B73563276D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="2" r:id="rId1"/>
+    <sheet name="new" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="10">
   <si>
     <t>FL1</t>
   </si>
@@ -55,6 +56,15 @@
   </si>
   <si>
     <t>meanx</t>
+  </si>
+  <si>
+    <t>NEM</t>
+  </si>
+  <si>
+    <t>CDNB + NEM</t>
+  </si>
+  <si>
+    <t>NEM + CDNB</t>
   </si>
 </sst>
 </file>
@@ -100,14 +110,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -123,9 +134,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -163,7 +174,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -269,7 +280,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -411,7 +422,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -421,13 +432,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB5FA687-EAEA-45CC-A7CC-435970B5F7FC}">
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -444,7 +455,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -467,7 +478,7 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="3"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>5</v>
       </c>
@@ -490,7 +501,7 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="3"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>10</v>
       </c>
@@ -513,7 +524,7 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="3"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>15</v>
       </c>
@@ -536,7 +547,7 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="3"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>20</v>
       </c>
@@ -559,7 +570,7 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="3"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>0</v>
       </c>
@@ -581,7 +592,7 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="3"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>5</v>
       </c>
@@ -599,7 +610,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>10</v>
       </c>
@@ -617,7 +628,7 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>15</v>
       </c>
@@ -635,7 +646,7 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>20</v>
       </c>
@@ -653,7 +664,7 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>0</v>
       </c>
@@ -667,7 +678,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>5</v>
       </c>
@@ -678,7 +689,7 @@
         <v>18.518518518518519</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>10</v>
       </c>
@@ -689,7 +700,7 @@
         <v>26.883780332056194</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>15</v>
       </c>
@@ -700,7 +711,7 @@
         <v>30.140485312899113</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>20</v>
       </c>
@@ -711,7 +722,7 @@
         <v>37.803320561941248</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>0</v>
       </c>
@@ -722,7 +733,7 @@
         <v>3.2691185055458254</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>5</v>
       </c>
@@ -733,7 +744,7 @@
         <v>38.295388207822526</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>10</v>
       </c>
@@ -744,7 +755,7 @@
         <v>51.371862230005824</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>15</v>
       </c>
@@ -755,7 +766,7 @@
         <v>65.382370110916526</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -766,7 +777,7 @@
         <v>54.69935785172212</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>0</v>
       </c>
@@ -777,7 +788,7 @@
         <v>4.642108415693321</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>5</v>
       </c>
@@ -788,7 +799,7 @@
         <v>25.516621743036836</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>10</v>
       </c>
@@ -799,7 +810,7 @@
         <v>39.862234201856843</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>15</v>
       </c>
@@ -810,7 +821,7 @@
         <v>49.715483677747834</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>20</v>
       </c>
@@ -821,7 +832,7 @@
         <v>57.681940700808632</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>0</v>
       </c>
@@ -832,7 +843,7 @@
         <v>3.6210798577432914</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>5</v>
       </c>
@@ -843,7 +854,7 @@
         <v>34.27093436792758</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>10</v>
       </c>
@@ -854,7 +865,7 @@
         <v>52.376333656644036</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>15</v>
       </c>
@@ -865,7 +876,7 @@
         <v>65.341092790171359</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>20</v>
       </c>
@@ -876,7 +887,7 @@
         <v>76.075008082767553</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>0</v>
       </c>
@@ -887,7 +898,7 @@
         <v>4.2965459140690818</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>5</v>
       </c>
@@ -898,7 +909,7 @@
         <v>18.197135636057286</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>10</v>
       </c>
@@ -909,7 +920,7 @@
         <v>28.390901432181963</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>15</v>
       </c>
@@ -920,7 +931,7 @@
         <v>35.551811288963769</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>20</v>
       </c>
@@ -931,7 +942,7 @@
         <v>41.280539174389205</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>0</v>
       </c>
@@ -942,7 +953,7 @@
         <v>5.0804403048264195</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>5</v>
       </c>
@@ -953,7 +964,7 @@
         <v>29.212531752751914</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>10</v>
       </c>
@@ -964,7 +975,7 @@
         <v>47.332768839966135</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>15</v>
       </c>
@@ -975,7 +986,7 @@
         <v>60.880609652836583</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>20</v>
       </c>
@@ -985,6 +996,385 @@
       <c r="C41" s="3">
         <v>71.549534292972055</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF872E04-5AE1-490F-822E-68CD548B21B0}">
+  <dimension ref="A1:D41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4">
+        <v>4.5632151828077037</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1.0399062582333134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4">
+        <v>23.123081216857383</v>
+      </c>
+      <c r="D3" s="4">
+        <v>4.8982837691705567</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4">
+        <v>34.691599218531962</v>
+      </c>
+      <c r="D4" s="4">
+        <v>6.3628560526659994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4">
+        <v>42.548144013396595</v>
+      </c>
+      <c r="D5" s="4">
+        <v>9.0904212389394328</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4">
+        <v>50.027909572983539</v>
+      </c>
+      <c r="D6" s="4">
+        <v>9.5753541123637991</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4">
+        <v>5.057915057915058</v>
+      </c>
+      <c r="D7" s="4">
+        <v>2.7462669041488694</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="4">
+        <v>36.267696267696273</v>
+      </c>
+      <c r="D8" s="4">
+        <v>5.6568889769722661</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="4">
+        <v>52.84427284427283</v>
+      </c>
+      <c r="D9" s="4">
+        <v>4.7146055682945613</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="4">
+        <v>66.731016731016737</v>
+      </c>
+      <c r="D10" s="4">
+        <v>5.6335384363396566</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="4">
+        <v>73.243243243243242</v>
+      </c>
+      <c r="D11" s="4">
+        <v>13.523046975803814</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>20</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="4">
+        <v>-6.2925170068027292</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="4">
+        <v>-5.9523809523809454</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>10</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="4">
+        <v>-6.4625850340136184</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>15</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="4">
+        <v>-5.9523809523809454</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="4">
+        <v>-6.4625850340136095</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="4">
+        <v>6.7829457364341099</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>5</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="4">
+        <v>7.1705426356589248</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>10</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="4">
+        <v>6.589147286821702</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>15</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="4">
+        <v>6.3953488372093039</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>20</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="4">
+        <v>8.5271317829457267</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B38" s="1"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B39" s="1"/>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B40" s="1"/>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B41" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
